--- a/individualbased_sim/parameters_tested.xlsx
+++ b/individualbased_sim/parameters_tested.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>NumPops</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>10pops_</t>
+  </si>
+  <si>
+    <t>10pops_1000gens_</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +532,50 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
